--- a/data/536/BIDN/SEKI/Base Money_historical - Monthly.xlsx
+++ b/data/536/BIDN/SEKI/Base Money_historical - Monthly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PC2"/>
+  <dimension ref="A1:PF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2454,7 +2454,22 @@
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
           <t>2021-11</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3729,16 @@
         <v>841727.67</v>
       </c>
       <c r="PC2" t="n">
+        <v>854282.73</v>
+      </c>
+      <c r="PD2" t="n">
         <v>867780.4300000001</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>959812.25</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>881497.8567118897</v>
       </c>
     </row>
   </sheetData>
